--- a/out/test/Figori_algorithm_27.xlsx
+++ b/out/test/Figori_algorithm_27.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.65310000000000001</v>
+        <v>0.65505000000000002</v>
       </c>
       <c r="B1">
-        <v>0.71199999999999997</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="C1">
-        <v>0.69379999999999997</v>
+        <v>0.65490000000000004</v>
       </c>
       <c r="D1">
-        <v>0.73075000000000001</v>
+        <v>0.6411</v>
       </c>
       <c r="E1">
-        <v>0.71655000000000002</v>
+        <v>0.70925000000000005</v>
       </c>
       <c r="F1">
-        <v>0.72419999999999995</v>
+        <v>0.71184999999999998</v>
       </c>
       <c r="G1">
-        <v>0.70084999999999997</v>
+        <v>0.75229999999999997</v>
       </c>
       <c r="H1">
-        <v>0.64459999999999995</v>
+        <v>0.68479999999999996</v>
       </c>
       <c r="I1">
-        <v>0.65200000000000002</v>
+        <v>0.72975000000000001</v>
       </c>
       <c r="J1">
-        <v>0.71104999999999996</v>
+        <v>0.73094999999999999</v>
       </c>
       <c r="K1">
-        <v>0.67530000000000001</v>
+        <v>0.69794999999999996</v>
       </c>
       <c r="L1">
-        <v>0.73045000000000004</v>
+        <v>0.72570000000000001</v>
       </c>
       <c r="M1">
-        <v>0.72935000000000005</v>
+        <v>0.753</v>
       </c>
       <c r="N1">
-        <v>0.69169999999999998</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="O1">
-        <v>0.64890000000000003</v>
+        <v>0.73285</v>
       </c>
       <c r="P1">
-        <v>0.71930000000000005</v>
+        <v>0.72214999999999996</v>
       </c>
       <c r="Q1">
-        <v>0.64195000000000002</v>
+        <v>0.70650000000000002</v>
       </c>
       <c r="R1">
-        <v>0.71120000000000005</v>
+        <v>0.6522</v>
       </c>
       <c r="S1">
-        <v>0.69430000000000003</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="T1">
-        <v>0.75590000000000002</v>
+        <v>0.75560000000000005</v>
       </c>
       <c r="U1">
-        <v>0.70914999999999995</v>
+        <v>0.64795000000000003</v>
       </c>
       <c r="V1">
-        <v>0.71940000000000004</v>
+        <v>0.72585</v>
       </c>
       <c r="W1">
-        <v>0.75670000000000004</v>
+        <v>0.64839999999999998</v>
       </c>
       <c r="X1">
-        <v>0.71604999999999996</v>
+        <v>0.64924999999999999</v>
       </c>
       <c r="Y1">
-        <v>0.64995000000000003</v>
+        <v>0.69589999999999996</v>
       </c>
       <c r="Z1">
-        <v>0.74580000000000002</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="AA1">
+        <v>0.64424999999999999</v>
+      </c>
+      <c r="AB1">
         <v>0.71779999999999999</v>
       </c>
-      <c r="AB1">
-        <v>0.64395000000000002</v>
-      </c>
       <c r="AC1">
-        <v>0.6431</v>
+        <v>0.65159999999999996</v>
       </c>
       <c r="AD1">
-        <v>0.72094999999999998</v>
+        <v>0.72719999999999996</v>
       </c>
       <c r="AE1">
-        <v>0.64864999999999995</v>
+        <v>0.70804999999999996</v>
       </c>
       <c r="AF1">
-        <v>0.69359999999999999</v>
+        <v>0.69779999999999998</v>
       </c>
       <c r="AG1">
-        <v>0.72850000000000004</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="AH1">
-        <v>0.72755000000000003</v>
+        <v>0.65469999999999995</v>
       </c>
       <c r="AI1">
-        <v>0.70294999999999996</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="AJ1">
-        <v>0.65659999999999996</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="AK1">
-        <v>0.7329</v>
+        <v>0.73085</v>
       </c>
       <c r="AL1">
-        <v>0.74960000000000004</v>
+        <v>0.73614999999999997</v>
       </c>
       <c r="AM1">
-        <v>0.72950000000000004</v>
+        <v>0.75070000000000003</v>
       </c>
       <c r="AN1">
-        <v>0.71884999999999999</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="AO1">
-        <v>0.71040000000000003</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="AP1">
-        <v>0.72130000000000005</v>
+        <v>0.70820000000000005</v>
       </c>
       <c r="AQ1">
-        <v>0.75460000000000005</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="AR1">
-        <v>0.72424999999999995</v>
+        <v>0.73385</v>
       </c>
       <c r="AS1">
-        <v>0.749</v>
+        <v>0.75209999999999999</v>
       </c>
       <c r="AT1">
-        <v>0.73729999999999996</v>
+        <v>0.64685000000000004</v>
       </c>
       <c r="AU1">
-        <v>0.71950000000000003</v>
+        <v>0.69584999999999997</v>
       </c>
       <c r="AV1">
-        <v>0.68769999999999998</v>
+        <v>0.70920000000000005</v>
       </c>
       <c r="AW1">
-        <v>0.75680000000000003</v>
+        <v>0.69489999999999996</v>
       </c>
       <c r="AX1">
-        <v>0.64510000000000001</v>
+        <v>0.63695000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.70389999999999997</v>
+        <v>0.52654999999999996</v>
       </c>
       <c r="B2">
-        <v>0.6946</v>
+        <v>0.6532</v>
       </c>
       <c r="C2">
-        <v>0.50270000000000004</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="D2">
-        <v>0.69389999999999996</v>
+        <v>0.73450000000000004</v>
       </c>
       <c r="E2">
-        <v>0.72835000000000005</v>
+        <v>0.71860000000000002</v>
       </c>
       <c r="F2">
-        <v>0.72929999999999995</v>
+        <v>0.65434999999999999</v>
       </c>
       <c r="G2">
-        <v>0.58430000000000004</v>
+        <v>0.72309999999999997</v>
       </c>
       <c r="H2">
-        <v>0.66259999999999997</v>
+        <v>0.56569999999999998</v>
       </c>
       <c r="I2">
-        <v>0.7349</v>
+        <v>0.65629999999999999</v>
       </c>
       <c r="J2">
-        <v>0.67745</v>
+        <v>0.8054</v>
       </c>
       <c r="K2">
-        <v>0.66859999999999997</v>
+        <v>0.79990000000000006</v>
       </c>
       <c r="L2">
-        <v>0.73980000000000001</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="M2">
-        <v>0.77610000000000001</v>
+        <v>0.74929999999999997</v>
       </c>
       <c r="N2">
-        <v>0.69</v>
+        <v>0.72319999999999995</v>
       </c>
       <c r="O2">
-        <v>0.71919999999999995</v>
+        <v>0.61909999999999998</v>
       </c>
       <c r="P2">
-        <v>0.70730000000000004</v>
+        <v>0.61180000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.5423</v>
+        <v>0.70909999999999995</v>
       </c>
       <c r="R2">
-        <v>0.75529999999999997</v>
+        <v>0.55179999999999996</v>
       </c>
       <c r="S2">
-        <v>0.5988</v>
+        <v>0.63385000000000002</v>
       </c>
       <c r="T2">
-        <v>0.78600000000000003</v>
+        <v>0.8</v>
       </c>
       <c r="U2">
-        <v>0.75785000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="V2">
-        <v>0.77239999999999998</v>
+        <v>0.6653</v>
       </c>
       <c r="W2">
-        <v>0.73380000000000001</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="X2">
-        <v>0.71514999999999995</v>
+        <v>0.42504999999999998</v>
       </c>
       <c r="Y2">
-        <v>0.6149</v>
+        <v>0.72384999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.68859999999999999</v>
+        <v>0.68320000000000003</v>
       </c>
       <c r="AA2">
-        <v>0.62119999999999997</v>
+        <v>0.60470000000000002</v>
       </c>
       <c r="AB2">
-        <v>0.63170000000000004</v>
+        <v>0.67789999999999995</v>
       </c>
       <c r="AC2">
-        <v>0.65439999999999998</v>
+        <v>0.65539999999999998</v>
       </c>
       <c r="AD2">
-        <v>0.65564999999999996</v>
+        <v>0.68279999999999996</v>
       </c>
       <c r="AE2">
-        <v>0.65349999999999997</v>
+        <v>0.68</v>
       </c>
       <c r="AF2">
-        <v>0.81589999999999996</v>
+        <v>0.70740000000000003</v>
       </c>
       <c r="AG2">
-        <v>0.71055000000000001</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="AH2">
-        <v>0.83525000000000005</v>
+        <v>0.62375000000000003</v>
       </c>
       <c r="AI2">
-        <v>0.69155</v>
+        <v>0.56859999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.6492</v>
+        <v>0.68864999999999998</v>
       </c>
       <c r="AK2">
-        <v>0.74339999999999995</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="AL2">
-        <v>0.83450000000000002</v>
+        <v>0.69450000000000001</v>
       </c>
       <c r="AM2">
-        <v>0.67030000000000001</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="AN2">
-        <v>0.77539999999999998</v>
+        <v>0.6119</v>
       </c>
       <c r="AO2">
-        <v>0.61799999999999999</v>
+        <v>0.5554</v>
       </c>
       <c r="AP2">
-        <v>0.55645</v>
+        <v>0.61960000000000004</v>
       </c>
       <c r="AQ2">
-        <v>0.72570000000000001</v>
+        <v>0.73760000000000003</v>
       </c>
       <c r="AR2">
-        <v>0.80815000000000003</v>
+        <v>0.84484999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.7268</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="AT2">
-        <v>0.69225000000000003</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="AU2">
-        <v>0.60614999999999997</v>
+        <v>0.64510000000000001</v>
       </c>
       <c r="AV2">
-        <v>0.56879999999999997</v>
+        <v>0.81469999999999998</v>
       </c>
       <c r="AW2">
-        <v>0.77939999999999998</v>
+        <v>0.69679999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.7036</v>
+        <v>0.55910000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.76080000000000003</v>
+        <v>0.60819999999999996</v>
       </c>
       <c r="B3">
-        <v>0.68740000000000001</v>
+        <v>0.70215000000000005</v>
       </c>
       <c r="C3">
-        <v>0.42270000000000002</v>
+        <v>0.55054999999999998</v>
       </c>
       <c r="D3">
-        <v>0.79015000000000002</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="E3">
-        <v>0.89</v>
+        <v>0.69394999999999996</v>
       </c>
       <c r="F3">
-        <v>0.63919999999999999</v>
+        <v>0.76170000000000004</v>
       </c>
       <c r="G3">
-        <v>0.3337</v>
+        <v>0.84289999999999998</v>
       </c>
       <c r="H3">
-        <v>0.51090000000000002</v>
+        <v>0.28449999999999998</v>
       </c>
       <c r="I3">
-        <v>0.76829999999999998</v>
+        <v>0.56040000000000001</v>
       </c>
       <c r="J3">
-        <v>0.73155000000000003</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="K3">
-        <v>0.76239999999999997</v>
+        <v>0.76429999999999998</v>
       </c>
       <c r="L3">
-        <v>0.63154999999999994</v>
+        <v>0.68510000000000004</v>
       </c>
       <c r="M3">
-        <v>0.70830000000000004</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="N3">
-        <v>0.61450000000000005</v>
+        <v>0.7097</v>
       </c>
       <c r="O3">
-        <v>0.70189999999999997</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="P3">
-        <v>0.74709999999999999</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.67400000000000004</v>
+        <v>0.67010000000000003</v>
       </c>
       <c r="R3">
-        <v>0.79584999999999995</v>
+        <v>0.42730000000000001</v>
       </c>
       <c r="S3">
-        <v>0.61760000000000004</v>
+        <v>0.5282</v>
       </c>
       <c r="T3">
-        <v>0.77844999999999998</v>
+        <v>0.88759999999999994</v>
       </c>
       <c r="U3">
-        <v>0.75209999999999999</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="V3">
-        <v>0.92959999999999998</v>
+        <v>0.53720000000000001</v>
       </c>
       <c r="W3">
-        <v>0.94889999999999997</v>
+        <v>0.67149999999999999</v>
       </c>
       <c r="X3">
-        <v>0.7913</v>
+        <v>0.3236</v>
       </c>
       <c r="Y3">
-        <v>0.31879999999999997</v>
+        <v>0.83079999999999998</v>
       </c>
       <c r="Z3">
-        <v>0.66510000000000002</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="AA3">
-        <v>0.57489999999999997</v>
+        <v>0.84030000000000005</v>
       </c>
       <c r="AB3">
-        <v>0.71084999999999998</v>
+        <v>0.50229999999999997</v>
       </c>
       <c r="AC3">
-        <v>0.61580000000000001</v>
+        <v>0.61129999999999995</v>
       </c>
       <c r="AD3">
-        <v>0.52200000000000002</v>
+        <v>0.57130000000000003</v>
       </c>
       <c r="AE3">
-        <v>0.70569999999999999</v>
+        <v>0.45810000000000001</v>
       </c>
       <c r="AF3">
-        <v>0.8397</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.71879999999999999</v>
+        <v>0.56889999999999996</v>
       </c>
       <c r="AH3">
-        <v>0.77359999999999995</v>
+        <v>0.51334999999999997</v>
       </c>
       <c r="AI3">
-        <v>0.66574999999999995</v>
+        <v>0.56259999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.62290000000000001</v>
+        <v>0.6371</v>
       </c>
       <c r="AK3">
-        <v>0.73109999999999997</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="AL3">
-        <v>0.94199999999999995</v>
+        <v>0.71150000000000002</v>
       </c>
       <c r="AM3">
-        <v>0.78690000000000004</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="AN3">
-        <v>0.61499999999999999</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="AO3">
-        <v>0.50749999999999995</v>
+        <v>0.55720000000000003</v>
       </c>
       <c r="AP3">
-        <v>0.49814999999999998</v>
+        <v>0.69059999999999999</v>
       </c>
       <c r="AQ3">
-        <v>0.73885000000000001</v>
+        <v>0.66310000000000002</v>
       </c>
       <c r="AR3">
-        <v>0.88109999999999999</v>
+        <v>0.47405000000000003</v>
       </c>
       <c r="AS3">
-        <v>0.77139999999999997</v>
+        <v>0.63839999999999997</v>
       </c>
       <c r="AT3">
-        <v>0.58009999999999995</v>
+        <v>0.81740000000000002</v>
       </c>
       <c r="AU3">
-        <v>0.60960000000000003</v>
+        <v>0.79049999999999998</v>
       </c>
       <c r="AV3">
-        <v>0.44619999999999999</v>
+        <v>0.81274999999999997</v>
       </c>
       <c r="AW3">
-        <v>0.73099999999999998</v>
+        <v>0.59760000000000002</v>
       </c>
       <c r="AX3">
-        <v>0.21124999999999999</v>
+        <v>0.67430000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.82220000000000004</v>
+        <v>0.67559999999999998</v>
       </c>
       <c r="B4">
-        <v>0.60509999999999997</v>
+        <v>0.51634999999999998</v>
       </c>
       <c r="C4">
-        <v>0.38890000000000002</v>
+        <v>0.38545000000000001</v>
       </c>
       <c r="D4">
-        <v>0.62450000000000006</v>
+        <v>0.70020000000000004</v>
       </c>
       <c r="E4">
-        <v>0.86365000000000003</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="F4">
-        <v>0.69520000000000004</v>
+        <v>0.77569999999999995</v>
       </c>
       <c r="G4">
-        <v>0.43440000000000001</v>
+        <v>0.73429999999999995</v>
       </c>
       <c r="H4">
-        <v>0.2442</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="I4">
-        <v>0.61680000000000001</v>
+        <v>0.46820000000000001</v>
       </c>
       <c r="J4">
-        <v>0.71579999999999999</v>
+        <v>0.5605</v>
       </c>
       <c r="K4">
-        <v>0.96499999999999997</v>
+        <v>0.90869999999999995</v>
       </c>
       <c r="L4">
-        <v>0.62229999999999996</v>
+        <v>0.61519999999999997</v>
       </c>
       <c r="M4">
-        <v>0.91910000000000003</v>
+        <v>0.55689999999999995</v>
       </c>
       <c r="N4">
-        <v>0.52790000000000004</v>
+        <v>0.6825</v>
       </c>
       <c r="O4">
-        <v>0.67559999999999998</v>
+        <v>0.61180000000000001</v>
       </c>
       <c r="P4">
-        <v>0.62944999999999995</v>
+        <v>0.49285000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.70320000000000005</v>
+        <v>0.62690000000000001</v>
       </c>
       <c r="R4">
-        <v>0.88339999999999996</v>
+        <v>0.35260000000000002</v>
       </c>
       <c r="S4">
-        <v>0.80589999999999995</v>
+        <v>0.37835000000000002</v>
       </c>
       <c r="T4">
-        <v>0.63529999999999998</v>
+        <v>0.77739999999999998</v>
       </c>
       <c r="U4">
-        <v>0.83440000000000003</v>
+        <v>0.59789999999999999</v>
       </c>
       <c r="V4">
-        <v>0.87290000000000001</v>
+        <v>0.61655000000000004</v>
       </c>
       <c r="W4">
-        <v>0.89054999999999995</v>
+        <v>0.59340000000000004</v>
       </c>
       <c r="X4">
-        <v>0.74670000000000003</v>
+        <v>0.2404</v>
       </c>
       <c r="Y4">
-        <v>0.32240000000000002</v>
+        <v>0.76770000000000005</v>
       </c>
       <c r="Z4">
-        <v>0.68610000000000004</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="AA4">
-        <v>0.45079999999999998</v>
+        <v>0.6845</v>
       </c>
       <c r="AB4">
-        <v>0.57179999999999997</v>
+        <v>0.38984999999999997</v>
       </c>
       <c r="AC4">
-        <v>0.66190000000000004</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="AD4">
-        <v>0.42820000000000003</v>
+        <v>0.5534</v>
       </c>
       <c r="AE4">
-        <v>0.63900000000000001</v>
+        <v>0.5706</v>
       </c>
       <c r="AF4">
-        <v>0.92930000000000001</v>
+        <v>0.31659999999999999</v>
       </c>
       <c r="AG4">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="AI4">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="AJ4">
+        <v>0.78590000000000004</v>
+      </c>
+      <c r="AK4">
+        <v>0.69989999999999997</v>
+      </c>
+      <c r="AL4">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="AM4">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="AN4">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="AO4">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="AP4">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="AQ4">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="AR4">
+        <v>0.59194999999999998</v>
+      </c>
+      <c r="AS4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AT4">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="AU4">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="AV4">
         <v>0.75170000000000003</v>
       </c>
-      <c r="AH4">
-        <v>0.6079</v>
-      </c>
-      <c r="AI4">
-        <v>0.66020000000000001</v>
-      </c>
-      <c r="AJ4">
-        <v>0.49230000000000002</v>
-      </c>
-      <c r="AK4">
-        <v>0.6593</v>
-      </c>
-      <c r="AL4">
-        <v>0.87949999999999995</v>
-      </c>
-      <c r="AM4">
-        <v>0.67515000000000003</v>
-      </c>
-      <c r="AN4">
-        <v>0.37119999999999997</v>
-      </c>
-      <c r="AO4">
-        <v>0.58620000000000005</v>
-      </c>
-      <c r="AP4">
-        <v>0.40050000000000002</v>
-      </c>
-      <c r="AQ4">
-        <v>0.61709999999999998</v>
-      </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
-        <v>0.8387</v>
-      </c>
-      <c r="AT4">
-        <v>0.54669999999999996</v>
-      </c>
-      <c r="AU4">
-        <v>0.50019999999999998</v>
-      </c>
-      <c r="AV4">
-        <v>0.62250000000000005</v>
-      </c>
       <c r="AW4">
-        <v>0.6663</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="AX4">
-        <v>0.16819999999999999</v>
+        <v>0.52170000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.83479999999999999</v>
+        <v>0.58550000000000002</v>
       </c>
       <c r="B5">
-        <v>0.504</v>
+        <v>0.38619999999999999</v>
       </c>
       <c r="C5">
-        <v>0.46229999999999999</v>
+        <v>0.38369999999999999</v>
       </c>
       <c r="D5">
-        <v>0.59</v>
+        <v>0.6401</v>
       </c>
       <c r="E5">
-        <v>0.86439999999999995</v>
+        <v>0.7641</v>
       </c>
       <c r="F5">
-        <v>0.72899999999999998</v>
+        <v>0.88880000000000003</v>
       </c>
       <c r="G5">
-        <v>0.3881</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="H5">
-        <v>0.36199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I5">
-        <v>0.40400000000000003</v>
+        <v>0.66</v>
       </c>
       <c r="J5">
-        <v>0.63829999999999998</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="K5">
-        <v>0.99660000000000004</v>
+        <v>0.84640000000000004</v>
       </c>
       <c r="L5">
-        <v>0.75890000000000002</v>
+        <v>0.48220000000000002</v>
       </c>
       <c r="M5">
-        <v>0.93559999999999999</v>
+        <v>0.5847</v>
       </c>
       <c r="N5">
-        <v>0.96750000000000003</v>
+        <v>0.73860000000000003</v>
       </c>
       <c r="O5">
-        <v>0.73760000000000003</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="P5">
-        <v>0.85440000000000005</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.72729999999999995</v>
+        <v>0.73829999999999996</v>
       </c>
       <c r="R5">
-        <v>0.76039999999999996</v>
+        <v>0.32329999999999998</v>
       </c>
       <c r="S5">
-        <v>0.80869999999999997</v>
+        <v>0.40670000000000001</v>
       </c>
       <c r="T5">
-        <v>0.77669999999999995</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="U5">
-        <v>0.88400000000000001</v>
+        <v>0.60540000000000005</v>
       </c>
       <c r="V5">
-        <v>0.64290000000000003</v>
+        <v>0.54859999999999998</v>
       </c>
       <c r="W5">
-        <v>0.75854999999999995</v>
+        <v>0.83730000000000004</v>
       </c>
       <c r="X5">
-        <v>0.91100000000000003</v>
+        <v>0.39484999999999998</v>
       </c>
       <c r="Y5">
-        <v>0.56030000000000002</v>
+        <v>0.78779999999999994</v>
       </c>
       <c r="Z5">
-        <v>0.88239999999999996</v>
+        <v>0.77939999999999998</v>
       </c>
       <c r="AA5">
-        <v>0.53739999999999999</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="AB5">
-        <v>0.37859999999999999</v>
+        <v>0.57530000000000003</v>
       </c>
       <c r="AC5">
-        <v>0.69910000000000005</v>
+        <v>0.8327</v>
       </c>
       <c r="AD5">
-        <v>0.35899999999999999</v>
+        <v>0.59060000000000001</v>
       </c>
       <c r="AE5">
-        <v>0.74150000000000005</v>
+        <v>0.44190000000000002</v>
       </c>
       <c r="AF5">
-        <v>0.91420000000000001</v>
+        <v>0.2001</v>
       </c>
       <c r="AG5">
-        <v>0.85309999999999997</v>
+        <v>0.48409999999999997</v>
       </c>
       <c r="AH5">
-        <v>0.5534</v>
+        <v>0.3377</v>
       </c>
       <c r="AI5">
-        <v>0.84260000000000002</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="AJ5">
-        <v>0.40179999999999999</v>
+        <v>0.87380000000000002</v>
       </c>
       <c r="AK5">
-        <v>0.58309999999999995</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="AL5">
-        <v>0.69350000000000001</v>
+        <v>0.46539999999999998</v>
       </c>
       <c r="AM5">
-        <v>0.54235</v>
+        <v>0.59719999999999995</v>
       </c>
       <c r="AN5">
-        <v>0.6008</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="AO5">
-        <v>0.66120000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="AP5">
-        <v>0.59130000000000005</v>
+        <v>0.61270000000000002</v>
       </c>
       <c r="AQ5">
-        <v>0.434</v>
+        <v>0.67830000000000001</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0.65590000000000004</v>
       </c>
       <c r="AS5">
-        <v>0.72970000000000002</v>
+        <v>0.57020000000000004</v>
       </c>
       <c r="AT5">
-        <v>0.71020000000000005</v>
+        <v>0.77459999999999996</v>
       </c>
       <c r="AU5">
-        <v>0.52510000000000001</v>
+        <v>0.4884</v>
       </c>
       <c r="AV5">
-        <v>0.68630000000000002</v>
+        <v>0.5897</v>
       </c>
       <c r="AW5">
-        <v>0.60580000000000001</v>
+        <v>0.61670000000000003</v>
       </c>
       <c r="AX5">
-        <v>0.37319999999999998</v>
+        <v>0.7621</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.71389999999999998</v>
+        <v>0.43730000000000002</v>
       </c>
       <c r="B6">
-        <v>0.64970000000000006</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="C6">
-        <v>0.85170000000000001</v>
+        <v>0.78879999999999995</v>
       </c>
       <c r="D6">
-        <v>0.67500000000000004</v>
+        <v>0.7268</v>
       </c>
       <c r="E6">
-        <v>0.71840000000000004</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="F6">
-        <v>0.84609999999999996</v>
+        <v>0.93959999999999999</v>
       </c>
       <c r="G6">
-        <v>0.34499999999999997</v>
+        <v>0.89790000000000003</v>
       </c>
       <c r="H6">
-        <v>0.30559999999999998</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="I6">
-        <v>0.79890000000000005</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="J6">
-        <v>0.63670000000000004</v>
+        <v>0.6381</v>
       </c>
       <c r="K6">
-        <v>0.99580000000000002</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="L6">
-        <v>0.76060000000000005</v>
+        <v>0.51539999999999997</v>
       </c>
       <c r="M6">
-        <v>0.92479999999999996</v>
+        <v>0.67279999999999995</v>
       </c>
       <c r="N6">
-        <v>0.8306</v>
+        <v>0.73939999999999995</v>
       </c>
       <c r="O6">
-        <v>0.80010000000000003</v>
+        <v>0.55159999999999998</v>
       </c>
       <c r="P6">
-        <v>0.78059999999999996</v>
+        <v>0.68210000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.55979999999999996</v>
+        <v>0.80789999999999995</v>
       </c>
       <c r="R6">
-        <v>0.628</v>
+        <v>0.82410000000000005</v>
       </c>
       <c r="S6">
-        <v>0.97289999999999999</v>
+        <v>0.27139999999999997</v>
       </c>
       <c r="T6">
-        <v>0.84250000000000003</v>
+        <v>0.74570000000000003</v>
       </c>
       <c r="U6">
-        <v>0.86890000000000001</v>
+        <v>0.94010000000000005</v>
       </c>
       <c r="V6">
-        <v>0.42530000000000001</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="W6">
-        <v>0.50049999999999994</v>
+        <v>0.71140000000000003</v>
       </c>
       <c r="X6">
-        <v>0.94630000000000003</v>
+        <v>0.2084</v>
       </c>
       <c r="Y6">
-        <v>0.44850000000000001</v>
+        <v>0.79049999999999998</v>
       </c>
       <c r="Z6">
-        <v>0.79810000000000003</v>
+        <v>0.90210000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.68889999999999996</v>
+        <v>0.79769999999999996</v>
       </c>
       <c r="AB6">
-        <v>0.34289999999999998</v>
+        <v>0.65590000000000004</v>
       </c>
       <c r="AC6">
-        <v>0.51170000000000004</v>
+        <v>0.88739999999999997</v>
       </c>
       <c r="AD6">
-        <v>0.20760000000000001</v>
+        <v>0.7984</v>
       </c>
       <c r="AE6">
-        <v>0.81859999999999999</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.98199999999999998</v>
+        <v>0.61129999999999995</v>
       </c>
       <c r="AG6">
-        <v>0.98089999999999999</v>
+        <v>0.45739999999999997</v>
       </c>
       <c r="AH6">
-        <v>0.37690000000000001</v>
+        <v>0.38159999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.92110000000000003</v>
+        <v>0.22509999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.2351</v>
+        <v>0.82530000000000003</v>
       </c>
       <c r="AK6">
-        <v>0.75719999999999998</v>
+        <v>0.68240000000000001</v>
       </c>
       <c r="AL6">
-        <v>0.65910000000000002</v>
+        <v>0.71630000000000005</v>
       </c>
       <c r="AM6">
-        <v>0.28949999999999998</v>
+        <v>0.33379999999999999</v>
       </c>
       <c r="AN6">
-        <v>0.56889999999999996</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="AO6">
-        <v>0.68210000000000004</v>
+        <v>0.43880000000000002</v>
       </c>
       <c r="AP6">
-        <v>0.53480000000000005</v>
+        <v>0.3977</v>
       </c>
       <c r="AQ6">
-        <v>0.34329999999999999</v>
+        <v>0.61739999999999995</v>
       </c>
       <c r="AR6">
-        <v>0.97789999999999999</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="AS6">
-        <v>0.66659999999999997</v>
+        <v>0.52680000000000005</v>
       </c>
       <c r="AT6">
-        <v>0.61129999999999995</v>
+        <v>0.76910000000000001</v>
       </c>
       <c r="AU6">
-        <v>0.66579999999999995</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="AV6">
-        <v>0.62339999999999995</v>
+        <v>0.62290000000000001</v>
       </c>
       <c r="AW6">
-        <v>0.72550000000000003</v>
+        <v>0.73640000000000005</v>
       </c>
       <c r="AX6">
-        <v>0.55730000000000002</v>
+        <v>0.8639</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.41039999999999999</v>
+        <v>0.54820000000000002</v>
       </c>
       <c r="B7">
-        <v>0.61880000000000002</v>
+        <v>0.43369999999999997</v>
       </c>
       <c r="C7">
-        <v>0.82020000000000004</v>
+        <v>0.87729999999999997</v>
       </c>
       <c r="D7">
-        <v>0.67210000000000003</v>
+        <v>0.62519999999999998</v>
       </c>
       <c r="E7">
-        <v>0.50439999999999996</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="F7">
-        <v>0.94369999999999998</v>
+        <v>0.88949999999999996</v>
       </c>
       <c r="G7">
-        <v>0.21540000000000001</v>
+        <v>0.7107</v>
       </c>
       <c r="H7">
-        <v>0.54239999999999999</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="I7">
-        <v>0.63980000000000004</v>
+        <v>0.755</v>
       </c>
       <c r="J7">
-        <v>0.61170000000000002</v>
+        <v>0.52729999999999999</v>
       </c>
       <c r="K7">
-        <v>0.99039999999999995</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="L7">
-        <v>0.50429999999999997</v>
+        <v>0.376</v>
       </c>
       <c r="M7">
-        <v>0.95050000000000001</v>
+        <v>0.7429</v>
       </c>
       <c r="N7">
-        <v>0.92900000000000005</v>
+        <v>0.69330000000000003</v>
       </c>
       <c r="O7">
-        <v>0.95079999999999998</v>
+        <v>0.57769999999999999</v>
       </c>
       <c r="P7">
-        <v>0.85109999999999997</v>
+        <v>0.54649999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.7742</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="R7">
-        <v>0.71760000000000002</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="S7">
-        <v>0.83899999999999997</v>
+        <v>0.4904</v>
       </c>
       <c r="T7">
-        <v>0.73309999999999997</v>
+        <v>0.65680000000000005</v>
       </c>
       <c r="U7">
-        <v>0.71350000000000002</v>
+        <v>0.91020000000000001</v>
       </c>
       <c r="V7">
-        <v>0.51160000000000005</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="W7">
-        <v>0.47099999999999997</v>
+        <v>0.55520000000000003</v>
       </c>
       <c r="X7">
-        <v>0.87070000000000003</v>
+        <v>0.51170000000000004</v>
       </c>
       <c r="Y7">
-        <v>0.41670000000000001</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="Z7">
-        <v>0.72650000000000003</v>
+        <v>0.80449999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.75990000000000002</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="AB7">
-        <v>0.52239999999999998</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="AC7">
-        <v>0.59460000000000002</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.255</v>
+        <v>0.79339999999999999</v>
       </c>
       <c r="AE7">
-        <v>0.63400000000000001</v>
+        <v>0.64980000000000004</v>
       </c>
       <c r="AF7">
-        <v>0.90100000000000002</v>
+        <v>0.83850000000000002</v>
       </c>
       <c r="AG7">
-        <v>0.92479999999999996</v>
+        <v>0.27410000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.26079999999999998</v>
+        <v>0.42170000000000002</v>
       </c>
       <c r="AI7">
-        <v>0.87529999999999997</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="AJ7">
-        <v>0.66379999999999995</v>
+        <v>0.85129999999999995</v>
       </c>
       <c r="AK7">
-        <v>0.35899999999999999</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="AL7">
-        <v>0.64429999999999998</v>
+        <v>0.54790000000000005</v>
       </c>
       <c r="AM7">
-        <v>0.36059999999999998</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="AN7">
-        <v>0.59660000000000002</v>
+        <v>0.77949999999999997</v>
       </c>
       <c r="AO7">
-        <v>0.58069999999999999</v>
+        <v>0.57669999999999999</v>
       </c>
       <c r="AP7">
-        <v>0.51570000000000005</v>
+        <v>0.40029999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.37130000000000002</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="AR7">
-        <v>0.93540000000000001</v>
+        <v>0.2908</v>
       </c>
       <c r="AS7">
-        <v>0.71</v>
+        <v>0.3856</v>
       </c>
       <c r="AT7">
-        <v>0.8649</v>
+        <v>0.91610000000000003</v>
       </c>
       <c r="AU7">
-        <v>0.4753</v>
+        <v>0.62450000000000006</v>
       </c>
       <c r="AV7">
-        <v>0.74299999999999999</v>
+        <v>0.6986</v>
       </c>
       <c r="AW7">
-        <v>0.63770000000000004</v>
+        <v>0.71079999999999999</v>
       </c>
       <c r="AX7">
-        <v>0.7681</v>
+        <v>0.62909999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.27860000000000001</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="B8">
-        <v>0.46600000000000003</v>
+        <v>0.48709999999999998</v>
       </c>
       <c r="C8">
-        <v>0.76019999999999999</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="D8">
-        <v>0.60870000000000002</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="E8">
-        <v>0.42259999999999998</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="F8">
-        <v>0.85050000000000003</v>
+        <v>0.92169999999999996</v>
       </c>
       <c r="G8">
-        <v>7.8399999999999997E-2</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="H8">
-        <v>0.58130000000000004</v>
+        <v>0.9244</v>
       </c>
       <c r="I8">
-        <v>0.73980000000000001</v>
+        <v>0.85040000000000004</v>
       </c>
       <c r="J8">
-        <v>0.54020000000000001</v>
+        <v>0.4677</v>
       </c>
       <c r="K8">
-        <v>0.91379999999999995</v>
+        <v>0.68479999999999996</v>
       </c>
       <c r="L8">
-        <v>0.32200000000000001</v>
+        <v>0.63190000000000002</v>
       </c>
       <c r="M8">
-        <v>0.93410000000000004</v>
+        <v>0.84540000000000004</v>
       </c>
       <c r="N8">
-        <v>0.93920000000000003</v>
+        <v>0.47110000000000002</v>
       </c>
       <c r="O8">
-        <v>0.89859999999999995</v>
+        <v>0.47220000000000001</v>
       </c>
       <c r="P8">
-        <v>0.74390000000000001</v>
+        <v>0.53259999999999996</v>
       </c>
       <c r="Q8">
-        <v>0.81589999999999996</v>
+        <v>0.81320000000000003</v>
       </c>
       <c r="R8">
-        <v>0.67120000000000002</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="S8">
-        <v>0.75280000000000002</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="T8">
-        <v>0.88329999999999997</v>
+        <v>0.68659999999999999</v>
       </c>
       <c r="U8">
-        <v>0.79520000000000002</v>
+        <v>0.80469999999999997</v>
       </c>
       <c r="V8">
-        <v>0.53320000000000001</v>
+        <v>0.8448</v>
       </c>
       <c r="W8">
-        <v>0.41060000000000002</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="X8">
-        <v>0.9415</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.66259999999999997</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="Z8">
-        <v>0.5645</v>
+        <v>0.6512</v>
       </c>
       <c r="AA8">
-        <v>0.66200000000000003</v>
+        <v>0.57540000000000002</v>
       </c>
       <c r="AB8">
-        <v>0.51090000000000002</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="AC8">
-        <v>0.90180000000000005</v>
+        <v>0.72570000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.51380000000000003</v>
+        <v>0.72230000000000005</v>
       </c>
       <c r="AE8">
-        <v>0.60509999999999997</v>
+        <v>0.67910000000000004</v>
       </c>
       <c r="AF8">
-        <v>0.84089999999999998</v>
+        <v>0.7712</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.25190000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.2127</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="AI8">
-        <v>0.64970000000000006</v>
+        <v>0.56910000000000005</v>
       </c>
       <c r="AJ8">
-        <v>0.5444</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="AK8">
-        <v>0.46910000000000002</v>
+        <v>0.51839999999999997</v>
       </c>
       <c r="AL8">
-        <v>0.76859999999999995</v>
+        <v>0.38819999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.2505</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="AN8">
-        <v>0.4506</v>
+        <v>0.70660000000000001</v>
       </c>
       <c r="AO8">
-        <v>0.73070000000000002</v>
+        <v>0.57020000000000004</v>
       </c>
       <c r="AP8">
-        <v>0.66220000000000001</v>
+        <v>0.31719999999999998</v>
       </c>
       <c r="AQ8">
-        <v>0.45419999999999999</v>
+        <v>0.61739999999999995</v>
       </c>
       <c r="AR8">
-        <v>0.88380000000000003</v>
+        <v>0.32779999999999998</v>
       </c>
       <c r="AS8">
-        <v>0.76929999999999998</v>
+        <v>0.4894</v>
       </c>
       <c r="AT8">
-        <v>0.83440000000000003</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="AU8">
-        <v>0.26329999999999998</v>
+        <v>0.59289999999999998</v>
       </c>
       <c r="AV8">
-        <v>0.68320000000000003</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="AW8">
-        <v>0.56469999999999998</v>
+        <v>0.47020000000000001</v>
       </c>
       <c r="AX8">
-        <v>0.58989999999999998</v>
+        <v>0.42409999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.15509999999999999</v>
+        <v>0.59819999999999995</v>
       </c>
       <c r="B9">
-        <v>0.41810000000000003</v>
+        <v>0.2626</v>
       </c>
       <c r="C9">
-        <v>0.48149999999999998</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="D9">
-        <v>0.57479999999999998</v>
+        <v>0.70879999999999999</v>
       </c>
       <c r="E9">
-        <v>0.3478</v>
+        <v>0.82040000000000002</v>
       </c>
       <c r="F9">
-        <v>0.58399999999999996</v>
+        <v>0.81279999999999997</v>
       </c>
       <c r="G9">
-        <v>0.128</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="H9">
-        <v>0.48770000000000002</v>
+        <v>0.7006</v>
       </c>
       <c r="I9">
-        <v>0.71619999999999995</v>
+        <v>0.75180000000000002</v>
       </c>
       <c r="J9">
-        <v>0.62019999999999997</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="K9">
-        <v>0.87939999999999996</v>
+        <v>0.57310000000000005</v>
       </c>
       <c r="L9">
-        <v>0.46460000000000001</v>
+        <v>0.52639999999999998</v>
       </c>
       <c r="M9">
-        <v>0.81289999999999996</v>
+        <v>0.87109999999999999</v>
       </c>
       <c r="N9">
-        <v>0.96919999999999995</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="O9">
-        <v>0.79890000000000005</v>
+        <v>0.46939999999999998</v>
       </c>
       <c r="P9">
-        <v>0.85019999999999996</v>
+        <v>0.60909999999999997</v>
       </c>
       <c r="Q9">
-        <v>0.87480000000000002</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="R9">
-        <v>0.56489999999999996</v>
+        <v>0.9446</v>
       </c>
       <c r="S9">
-        <v>0.67420000000000002</v>
+        <v>0.6875</v>
       </c>
       <c r="T9">
-        <v>0.90210000000000001</v>
+        <v>0.74950000000000006</v>
       </c>
       <c r="U9">
-        <v>0.83679999999999999</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="V9">
-        <v>0.48759999999999998</v>
+        <v>0.82820000000000005</v>
       </c>
       <c r="W9">
-        <v>0.46639999999999998</v>
+        <v>0.86470000000000002</v>
       </c>
       <c r="X9">
-        <v>0.88349999999999995</v>
+        <v>0.61629999999999996</v>
       </c>
       <c r="Y9">
-        <v>0.432</v>
+        <v>0.5988</v>
       </c>
       <c r="Z9">
-        <v>0.45279999999999998</v>
+        <v>0.77610000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.54190000000000005</v>
+        <v>0.41639999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.39079999999999998</v>
+        <v>0.81969999999999998</v>
       </c>
       <c r="AC9">
-        <v>0.82089999999999996</v>
+        <v>0.82879999999999998</v>
       </c>
       <c r="AD9">
-        <v>0.51029999999999998</v>
+        <v>0.6825</v>
       </c>
       <c r="AE9">
-        <v>0.35270000000000001</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.6865</v>
+        <v>0.66439999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.98280000000000001</v>
+        <v>0.36409999999999998</v>
       </c>
       <c r="AH9">
-        <v>5.6099999999999997E-2</v>
+        <v>0.49270000000000003</v>
       </c>
       <c r="AI9">
-        <v>0.69089999999999996</v>
+        <v>0.62429999999999997</v>
       </c>
       <c r="AJ9">
-        <v>0.56320000000000003</v>
+        <v>0.66410000000000002</v>
       </c>
       <c r="AK9">
-        <v>0.73009999999999997</v>
+        <v>0.42259999999999998</v>
       </c>
       <c r="AL9">
-        <v>0.80589999999999995</v>
+        <v>0.43130000000000002</v>
       </c>
       <c r="AM9">
-        <v>0.24479999999999999</v>
+        <v>0.57679999999999998</v>
       </c>
       <c r="AN9">
-        <v>0.45669999999999999</v>
+        <v>0.60029999999999994</v>
       </c>
       <c r="AO9">
-        <v>0.61899999999999999</v>
+        <v>0.37109999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.54620000000000002</v>
+        <v>0.56610000000000005</v>
       </c>
       <c r="AQ9">
-        <v>0.44419999999999998</v>
+        <v>0.3916</v>
       </c>
       <c r="AR9">
-        <v>0.8901</v>
+        <v>0.44169999999999998</v>
       </c>
       <c r="AS9">
-        <v>0.67390000000000005</v>
+        <v>0.7429</v>
       </c>
       <c r="AT9">
-        <v>0.79310000000000003</v>
+        <v>0.95950000000000002</v>
       </c>
       <c r="AU9">
-        <v>0.36499999999999999</v>
+        <v>0.4496</v>
       </c>
       <c r="AV9">
-        <v>0.87170000000000003</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="AW9">
-        <v>0.4869</v>
+        <v>0.3846</v>
       </c>
       <c r="AX9">
-        <v>0.63470000000000004</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.18840000000000001</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="B10">
-        <v>0.47039999999999998</v>
+        <v>0.37809999999999999</v>
       </c>
       <c r="C10">
-        <v>0.30880000000000002</v>
+        <v>0.82869999999999999</v>
       </c>
       <c r="D10">
-        <v>0.76239999999999997</v>
+        <v>0.64570000000000005</v>
       </c>
       <c r="E10">
-        <v>0.37590000000000001</v>
+        <v>0.78410000000000002</v>
       </c>
       <c r="F10">
-        <v>0.62939999999999996</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="G10">
-        <v>0.1158</v>
+        <v>0.432</v>
       </c>
       <c r="H10">
-        <v>0.49159999999999998</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="I10">
-        <v>0.70220000000000005</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="J10">
-        <v>0.62239999999999995</v>
+        <v>0.53620000000000001</v>
       </c>
       <c r="K10">
-        <v>0.79139999999999999</v>
+        <v>0.52510000000000001</v>
       </c>
       <c r="L10">
-        <v>0.37459999999999999</v>
+        <v>0.56020000000000003</v>
       </c>
       <c r="M10">
-        <v>0.63060000000000005</v>
+        <v>0.72030000000000005</v>
       </c>
       <c r="N10">
-        <v>0.93059999999999998</v>
+        <v>0.31619999999999998</v>
       </c>
       <c r="O10">
-        <v>0.81799999999999995</v>
+        <v>0.57079999999999997</v>
       </c>
       <c r="P10">
-        <v>0.64470000000000005</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.82410000000000005</v>
+        <v>0.8639</v>
       </c>
       <c r="R10">
-        <v>0.52749999999999997</v>
+        <v>0.85589999999999999</v>
       </c>
       <c r="S10">
-        <v>0.69899999999999995</v>
+        <v>0.76580000000000004</v>
       </c>
       <c r="T10">
-        <v>0.94310000000000005</v>
+        <v>0.63109999999999999</v>
       </c>
       <c r="U10">
-        <v>0.76529999999999998</v>
+        <v>0.79990000000000006</v>
       </c>
       <c r="V10">
-        <v>0.44679999999999997</v>
+        <v>0.89059999999999995</v>
       </c>
       <c r="W10">
-        <v>0.54200000000000004</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="X10">
-        <v>0.89859999999999995</v>
+        <v>0.68930000000000002</v>
       </c>
       <c r="Y10">
-        <v>0.31240000000000001</v>
+        <v>0.43280000000000002</v>
       </c>
       <c r="Z10">
-        <v>0.49490000000000001</v>
+        <v>0.6754</v>
       </c>
       <c r="AA10">
-        <v>0.55920000000000003</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="AB10">
-        <v>0.3997</v>
+        <v>0.91459999999999997</v>
       </c>
       <c r="AC10">
-        <v>0.78959999999999997</v>
+        <v>0.73870000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.53110000000000002</v>
+        <v>0.57920000000000005</v>
       </c>
       <c r="AE10">
-        <v>0.39639999999999997</v>
+        <v>0.73850000000000005</v>
       </c>
       <c r="AF10">
-        <v>0.77600000000000002</v>
+        <v>0.48089999999999999</v>
       </c>
       <c r="AG10">
-        <v>0.98899999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="AH10">
-        <v>6.08E-2</v>
+        <v>0.31519999999999998</v>
       </c>
       <c r="AI10">
-        <v>0.60809999999999997</v>
+        <v>0.77480000000000004</v>
       </c>
       <c r="AJ10">
-        <v>0.78390000000000004</v>
+        <v>0.49790000000000001</v>
       </c>
       <c r="AK10">
-        <v>0.754</v>
+        <v>0.1008</v>
       </c>
       <c r="AL10">
-        <v>0.80200000000000005</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="AM10">
-        <v>0.53120000000000001</v>
+        <v>0.67520000000000002</v>
       </c>
       <c r="AN10">
-        <v>0.49259999999999998</v>
+        <v>0.75039999999999996</v>
       </c>
       <c r="AO10">
-        <v>0.62270000000000003</v>
+        <v>0.2412</v>
       </c>
       <c r="AP10">
-        <v>0.62350000000000005</v>
+        <v>0.69579999999999997</v>
       </c>
       <c r="AQ10">
-        <v>0.36320000000000002</v>
+        <v>0.58030000000000004</v>
       </c>
       <c r="AR10">
-        <v>0.89380000000000004</v>
+        <v>0.2235</v>
       </c>
       <c r="AS10">
-        <v>0.67820000000000003</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="AT10">
-        <v>0.80620000000000003</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="AU10">
-        <v>0.34760000000000002</v>
+        <v>0.4703</v>
       </c>
       <c r="AV10">
-        <v>0.85419999999999996</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="AW10">
-        <v>0.45200000000000001</v>
+        <v>0.60829999999999995</v>
       </c>
       <c r="AX10">
-        <v>0.59050000000000002</v>
+        <v>0.16009999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9.1499999999999998E-2</v>
+        <v>0.53380000000000005</v>
       </c>
       <c r="B11">
-        <v>0.25290000000000001</v>
+        <v>0.68869999999999998</v>
       </c>
       <c r="C11">
-        <v>0.13880000000000001</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="D11">
-        <v>0.71950000000000003</v>
+        <v>0.61450000000000005</v>
       </c>
       <c r="E11">
-        <v>0.45069999999999999</v>
+        <v>0.7036</v>
       </c>
       <c r="F11">
-        <v>0.41449999999999998</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="G11">
-        <v>0.14369999999999999</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="H11">
-        <v>0.46139999999999998</v>
+        <v>0.59589999999999999</v>
       </c>
       <c r="I11">
-        <v>0.60270000000000001</v>
+        <v>0.7137</v>
       </c>
       <c r="J11">
-        <v>0.52</v>
+        <v>0.62519999999999998</v>
       </c>
       <c r="K11">
-        <v>0.65280000000000005</v>
+        <v>0.5585</v>
       </c>
       <c r="L11">
-        <v>0.4874</v>
+        <v>0.42449999999999999</v>
       </c>
       <c r="M11">
-        <v>0.60799999999999998</v>
+        <v>0.76280000000000003</v>
       </c>
       <c r="N11">
-        <v>0.93569999999999998</v>
+        <v>0.53920000000000001</v>
       </c>
       <c r="O11">
-        <v>0.72789999999999999</v>
+        <v>0.53910000000000002</v>
       </c>
       <c r="P11">
-        <v>0.82120000000000004</v>
+        <v>0.31240000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.73829999999999996</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="R11">
-        <v>0.53600000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="S11">
-        <v>0.62749999999999995</v>
+        <v>0.48559999999999998</v>
       </c>
       <c r="T11">
-        <v>0.93569999999999998</v>
+        <v>0.59609999999999996</v>
       </c>
       <c r="U11">
-        <v>0.76819999999999999</v>
+        <v>0.87809999999999999</v>
       </c>
       <c r="V11">
-        <v>0.29049999999999998</v>
+        <v>0.87849999999999995</v>
       </c>
       <c r="W11">
-        <v>0.56469999999999998</v>
+        <v>0.6028</v>
       </c>
       <c r="X11">
-        <v>0.81569999999999998</v>
+        <v>0.58360000000000001</v>
       </c>
       <c r="Y11">
-        <v>0.56689999999999996</v>
+        <v>0.3402</v>
       </c>
       <c r="Z11">
-        <v>0.69289999999999996</v>
+        <v>0.74280000000000002</v>
       </c>
       <c r="AA11">
-        <v>0.73109999999999997</v>
+        <v>0.21440000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.38469999999999999</v>
+        <v>0.75929999999999997</v>
       </c>
       <c r="AC11">
-        <v>0.63959999999999995</v>
+        <v>0.70530000000000004</v>
       </c>
       <c r="AD11">
-        <v>0.4788</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="AE11">
-        <v>0.46810000000000002</v>
+        <v>0.63480000000000003</v>
       </c>
       <c r="AF11">
-        <v>0.76049999999999995</v>
+        <v>0.45739999999999997</v>
       </c>
       <c r="AG11">
-        <v>0.99229999999999996</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="AH11">
-        <v>4.07E-2</v>
+        <v>0.60950000000000004</v>
       </c>
       <c r="AI11">
-        <v>0.58230000000000004</v>
+        <v>0.71630000000000005</v>
       </c>
       <c r="AJ11">
-        <v>0.7833</v>
+        <v>0.29160000000000003</v>
       </c>
       <c r="AK11">
-        <v>0.61119999999999997</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.71489999999999998</v>
+        <v>0.43869999999999998</v>
       </c>
       <c r="AM11">
-        <v>0.39850000000000002</v>
+        <v>0.71150000000000002</v>
       </c>
       <c r="AN11">
-        <v>0.4128</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="AO11">
-        <v>0.59160000000000001</v>
+        <v>0.44919999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.56159999999999999</v>
+        <v>0.64949999999999997</v>
       </c>
       <c r="AQ11">
-        <v>0.26500000000000001</v>
+        <v>0.88090000000000002</v>
       </c>
       <c r="AR11">
-        <v>0.86760000000000004</v>
+        <v>0.1384</v>
       </c>
       <c r="AS11">
-        <v>0.58979999999999999</v>
+        <v>0.57620000000000005</v>
       </c>
       <c r="AT11">
-        <v>0.91090000000000004</v>
+        <v>0.97270000000000001</v>
       </c>
       <c r="AU11">
-        <v>0.51060000000000005</v>
+        <v>0.36919999999999997</v>
       </c>
       <c r="AV11">
-        <v>0.80269999999999997</v>
+        <v>0.67259999999999998</v>
       </c>
       <c r="AW11">
-        <v>0.55530000000000002</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.49170000000000003</v>
+        <v>8.8599999999999998E-2</v>
       </c>
     </row>
   </sheetData>
